--- a/SIMMR QPB/QPBFeb17.xlsx
+++ b/SIMMR QPB/QPBFeb17.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guti\Documents\R\win-library\3.6\simmr\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LTER\Manuscript 2019 Stable Isotopes\Isotopes-Analysis\SIMMR QPB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64535F19-FEDC-40FD-89F3-757A23CC3673}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ADFA37F-1A8A-4374-9DC3-0610C6231CCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{682CD829-CE99-4243-847C-7BC9FABF46A6}"/>
+    <workbookView xWindow="14484" yWindow="2364" windowWidth="17280" windowHeight="8964" xr2:uid="{682CD829-CE99-4243-847C-7BC9FABF46A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Targets" sheetId="1" r:id="rId1"/>
@@ -98,18 +98,12 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -126,10 +120,10 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -448,11 +442,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4948DE50-105B-4A72-9D97-ECACD847B3F9}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="2"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -461,128 +458,128 @@
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>-40.04</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>2.23</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>-32.86</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>3.71</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>-27.46</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>4.41</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>-28.17</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>4.51</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>-28.43</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>3.15</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="2">
         <v>-28.15</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>3.03</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="2">
         <v>-28.53</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>2.84</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="2">
         <v>-27.98</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>3.36</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" s="2">
         <v>-28.17</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>1.88</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" s="2">
         <v>-28.18</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>1.97</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="A12" s="2">
         <v>-28.4</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>2.2799999999999998</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>5</v>
       </c>
     </row>
@@ -631,167 +628,167 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="A17" s="2">
         <v>-26.53</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <v>5.37</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="A18" s="2">
         <v>-26.3</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2">
         <v>5.36</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="A19" s="2">
         <v>-26.35</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
         <v>5.45</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="A20" s="2">
         <v>-26.92</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="2">
         <v>7.91</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="A21" s="2">
         <v>-26.9</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="2">
         <v>7.96</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22">
+      <c r="A22" s="2">
         <v>-26.89</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="2">
         <v>8.18</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23">
+      <c r="A23" s="2">
         <v>-26.89</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="2">
         <v>8.18</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24">
+      <c r="A24" s="2">
         <v>-23.94</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="2">
         <v>6.16</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25">
+      <c r="A25" s="2">
         <v>-22.74</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="2">
         <v>4.59</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26">
+      <c r="A26" s="2">
         <v>-23.26</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="2">
         <v>5.7</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27">
+      <c r="A27" s="2">
         <v>-23.27</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="2">
         <v>4.91</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28">
+      <c r="A28" s="2">
         <v>-26.33</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="2">
         <v>6.21</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29">
+      <c r="A29" s="2">
         <v>-26.3</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="2">
         <v>6.21</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30">
+      <c r="A30" s="2">
         <v>-26.38</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="2">
         <v>6.25</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31">
+      <c r="A31" s="2">
         <v>-26.35</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="2">
         <v>6.07</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="2">
         <v>10</v>
       </c>
     </row>
